--- a/media/Orders/230209/OC/1200114998 2 Amended.XLSX
+++ b/media/Orders/230209/OC/1200114998 2 Amended.XLSX
@@ -10,9 +10,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$49</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="191">
   <si>
     <t>1200114998</t>
   </si>
@@ -420,18 +420,6 @@
   </si>
   <si>
     <t>1083249</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>1250232</t>
-  </si>
-  <si>
-    <t>DESICCANT PACKS BX/2 SETS</t>
-  </si>
-  <si>
-    <t>M954960</t>
   </si>
   <si>
     <t>360</t>
@@ -1057,10 +1045,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1082,52 +1070,52 @@
   <sheetData>
     <row r="1" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="O1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -2546,16 +2534,14 @@
         <v>132</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="H30" s="11">
-        <v>53998</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H30" s="11"/>
       <c r="I30" s="8">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="J30" s="8">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
@@ -2573,7 +2559,7 @@
         <v>8</v>
       </c>
       <c r="P30" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -2587,20 +2573,20 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>5</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="8">
-        <v>284</v>
+        <v>1411</v>
       </c>
       <c r="J31" s="8">
         <v>0</v>
@@ -2609,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M31" t="s">
         <v>6</v>
@@ -2635,29 +2621,31 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G32" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="11"/>
+      <c r="H32" s="11">
+        <v>45125</v>
+      </c>
       <c r="I32" s="8">
-        <v>1411</v>
+        <v>100</v>
       </c>
       <c r="J32" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="2">
         <v>0</v>
       </c>
       <c r="L32" s="2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M32" t="s">
         <v>6</v>
@@ -2669,7 +2657,7 @@
         <v>8</v>
       </c>
       <c r="P32" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -2698,10 +2686,10 @@
         <v>45125</v>
       </c>
       <c r="I33" s="8">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="J33" s="8">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="K33" s="2">
         <v>0</v>
@@ -2745,13 +2733,13 @@
         <v>147</v>
       </c>
       <c r="H34" s="11">
-        <v>45125</v>
+        <v>53725</v>
       </c>
       <c r="I34" s="8">
-        <v>15</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J34" s="8">
-        <v>15</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K34" s="2">
         <v>0</v>
@@ -2792,16 +2780,14 @@
         <v>150</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H35" s="11">
-        <v>53725</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H35" s="11"/>
       <c r="I35" s="8">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="J35" s="8">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K35" s="2">
         <v>0</v>
@@ -2819,7 +2805,7 @@
         <v>8</v>
       </c>
       <c r="P35" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -2833,23 +2819,25 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H36" s="11"/>
+      <c r="H36" s="11">
+        <v>45444</v>
+      </c>
       <c r="I36" s="8">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="J36" s="8">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K36" s="2">
         <v>0</v>
@@ -2867,7 +2855,7 @@
         <v>8</v>
       </c>
       <c r="P36" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -2881,7 +2869,7 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>97</v>
@@ -2890,16 +2878,16 @@
         <v>98</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H37" s="11">
-        <v>45444</v>
+        <v>45610</v>
       </c>
       <c r="I37" s="8">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J37" s="8">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K37" s="2">
         <v>0</v>
@@ -2931,31 +2919,31 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H38" s="11">
-        <v>45610</v>
+        <v>45323</v>
       </c>
       <c r="I38" s="8">
-        <v>60</v>
+        <v>456</v>
       </c>
       <c r="J38" s="8">
-        <v>60</v>
+        <v>456</v>
       </c>
       <c r="K38" s="2">
-        <v>0</v>
+        <v>16.2</v>
       </c>
       <c r="L38" s="2">
-        <v>0</v>
+        <v>7387.2</v>
       </c>
       <c r="M38" t="s">
         <v>6</v>
@@ -2981,7 +2969,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>33</v>
@@ -2990,22 +2978,22 @@
         <v>34</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H39" s="11">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I39" s="8">
-        <v>456</v>
+        <v>144</v>
       </c>
       <c r="J39" s="8">
-        <v>456</v>
+        <v>144</v>
       </c>
       <c r="K39" s="2">
         <v>16.2</v>
       </c>
       <c r="L39" s="2">
-        <v>7387.2</v>
+        <v>2332.8000000000002</v>
       </c>
       <c r="M39" t="s">
         <v>6</v>
@@ -3031,31 +3019,31 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H40" s="11">
-        <v>45383</v>
+        <v>45474</v>
       </c>
       <c r="I40" s="8">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="J40" s="8">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="K40" s="2">
-        <v>16.2</v>
+        <v>45</v>
       </c>
       <c r="L40" s="2">
-        <v>2332.8000000000002</v>
+        <v>2115</v>
       </c>
       <c r="M40" t="s">
         <v>6</v>
@@ -3081,7 +3069,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>3</v>
@@ -3090,22 +3078,20 @@
         <v>4</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H41" s="11">
-        <v>45474</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H41" s="11"/>
       <c r="I41" s="8">
-        <v>47</v>
+        <v>953</v>
       </c>
       <c r="J41" s="8">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="K41" s="2">
         <v>45</v>
       </c>
       <c r="L41" s="2">
-        <v>2115</v>
+        <v>42885</v>
       </c>
       <c r="M41" t="s">
         <v>6</v>
@@ -3117,7 +3103,7 @@
         <v>8</v>
       </c>
       <c r="P41" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -3131,29 +3117,31 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="11"/>
+        <v>163</v>
+      </c>
+      <c r="H42" s="11">
+        <v>45444</v>
+      </c>
       <c r="I42" s="8">
-        <v>953</v>
+        <v>24</v>
       </c>
       <c r="J42" s="8">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K42" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="L42" s="2">
-        <v>42885</v>
+        <v>1296</v>
       </c>
       <c r="M42" t="s">
         <v>6</v>
@@ -3165,7 +3153,7 @@
         <v>8</v>
       </c>
       <c r="P42" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -3179,7 +3167,7 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>9</v>
@@ -3188,22 +3176,20 @@
         <v>10</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="H43" s="11">
-        <v>45444</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H43" s="11"/>
       <c r="I43" s="8">
-        <v>24</v>
+        <v>326</v>
       </c>
       <c r="J43" s="8">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K43" s="2">
         <v>54</v>
       </c>
       <c r="L43" s="2">
-        <v>1296</v>
+        <v>17604</v>
       </c>
       <c r="M43" t="s">
         <v>6</v>
@@ -3215,7 +3201,7 @@
         <v>8</v>
       </c>
       <c r="P43" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -3229,29 +3215,31 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="11"/>
+        <v>166</v>
+      </c>
+      <c r="H44" s="11">
+        <v>45474</v>
+      </c>
       <c r="I44" s="8">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="J44" s="8">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="K44" s="2">
-        <v>54</v>
+        <v>16.2</v>
       </c>
       <c r="L44" s="2">
-        <v>17604</v>
+        <v>5832</v>
       </c>
       <c r="M44" t="s">
         <v>6</v>
@@ -3263,7 +3251,7 @@
         <v>8</v>
       </c>
       <c r="P44" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -3277,7 +3265,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>19</v>
@@ -3286,22 +3274,22 @@
         <v>20</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H45" s="11">
         <v>45474</v>
       </c>
       <c r="I45" s="8">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="J45" s="8">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="K45" s="2">
         <v>16.2</v>
       </c>
       <c r="L45" s="2">
-        <v>5832</v>
+        <v>4374</v>
       </c>
       <c r="M45" t="s">
         <v>6</v>
@@ -3327,7 +3315,7 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>19</v>
@@ -3336,22 +3324,22 @@
         <v>20</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H46" s="11">
         <v>45474</v>
       </c>
       <c r="I46" s="8">
-        <v>270</v>
+        <v>170</v>
       </c>
       <c r="J46" s="8">
-        <v>270</v>
+        <v>170</v>
       </c>
       <c r="K46" s="2">
         <v>16.2</v>
       </c>
       <c r="L46" s="2">
-        <v>4374</v>
+        <v>2754</v>
       </c>
       <c r="M46" t="s">
         <v>6</v>
@@ -3377,7 +3365,7 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>19</v>
@@ -3386,22 +3374,20 @@
         <v>20</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="H47" s="11">
-        <v>45474</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H47" s="11"/>
       <c r="I47" s="8">
-        <v>170</v>
+        <v>400</v>
       </c>
       <c r="J47" s="8">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="K47" s="2">
         <v>16.2</v>
       </c>
       <c r="L47" s="2">
-        <v>2754</v>
+        <v>6480</v>
       </c>
       <c r="M47" t="s">
         <v>6</v>
@@ -3413,7 +3399,7 @@
         <v>8</v>
       </c>
       <c r="P47" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -3427,29 +3413,31 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="11"/>
+        <v>173</v>
+      </c>
+      <c r="H48" s="11">
+        <v>45474</v>
+      </c>
       <c r="I48" s="8">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="J48" s="8">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="K48" s="2">
         <v>16.2</v>
       </c>
       <c r="L48" s="2">
-        <v>6480</v>
+        <v>3888</v>
       </c>
       <c r="M48" t="s">
         <v>6</v>
@@ -3461,7 +3449,7 @@
         <v>8</v>
       </c>
       <c r="P48" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -3475,7 +3463,7 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>55</v>
@@ -3484,22 +3472,20 @@
         <v>56</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="H49" s="11">
-        <v>45474</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H49" s="11"/>
       <c r="I49" s="8">
-        <v>240</v>
+        <v>460</v>
       </c>
       <c r="J49" s="8">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="K49" s="2">
         <v>16.2</v>
       </c>
       <c r="L49" s="2">
-        <v>3888</v>
+        <v>7452</v>
       </c>
       <c r="M49" t="s">
         <v>6</v>
@@ -3511,59 +3497,11 @@
         <v>8</v>
       </c>
       <c r="P49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" t="s">
-        <v>178</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H50" s="11"/>
-      <c r="I50" s="8">
-        <v>460</v>
-      </c>
-      <c r="J50" s="8">
-        <v>0</v>
-      </c>
-      <c r="K50" s="2">
-        <v>16.2</v>
-      </c>
-      <c r="L50" s="2">
-        <v>7452</v>
-      </c>
-      <c r="M50" t="s">
-        <v>6</v>
-      </c>
-      <c r="N50" t="s">
-        <v>7</v>
-      </c>
-      <c r="O50" t="s">
-        <v>8</v>
-      </c>
-      <c r="P50" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P50"/>
+  <autoFilter ref="A1:P49"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
